--- a/.tests/PruebasIniciales.xlsx
+++ b/.tests/PruebasIniciales.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="10187" activeTab="3"/>
+    <workbookView windowWidth="22188" windowHeight="10187"/>
   </bookViews>
   <sheets>
     <sheet name="10 elementos" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="179">
   <si>
     <t xml:space="preserve">Archivo base: </t>
   </si>
@@ -103,118 +103,154 @@
     <t>Tiempo Estr1</t>
   </si>
   <si>
-    <t>ABCDEFGHIJt+1|ABCDEFGHIJt</t>
+    <t>ABCDEFGHIJ_{t+1}|ABCDEFGHIJ_{t}</t>
   </si>
   <si>
-    <t>ABCDEFGHIJt+1|ABCDEFGJt</t>
+    <t>ABCDEFGHIJ_{t+1}|ABCDEFGHI_{t}</t>
   </si>
   <si>
-    <t>ABCDEFGHIJt+1|ABCDEFGHt</t>
+    <t>ABCDEFGHIJ_{t+1}|BCDEFGHIJ_{t}</t>
   </si>
   <si>
-    <t>ABCDEFGHIJt+1|ABCDEGHt</t>
+    <t>ABCDEFGHIJ_{t+1}|BCDEFGHI_{t}</t>
   </si>
   <si>
-    <t>ABCDEFGHIJt+1|ABCDFGJt</t>
+    <t>ABCDEFGHIJ_{t+1}|ACEGI_{t}</t>
   </si>
   <si>
-    <t>ABCDEFGHIJt+1|ABCEFGHt</t>
+    <t>ABCDEFGHIJ_{t+1}|BDFHJ_{t}</t>
   </si>
   <si>
-    <t>ABCDEFGHIJt+1|ABDEFGJt</t>
+    <t>ABCDEFGHIJ_{t+1}|ABDEGHJ_{t}</t>
   </si>
   <si>
-    <t>ABCDEFGHIJt+1|ACDEFGHt</t>
+    <t>ABCDEFGHI_{t+1}|ABCDEFGHIJ_{t}</t>
   </si>
   <si>
-    <t>ABCDEFGHIJt+1|BCDEFGJt</t>
+    <t>ABCDEFGHI_{t+1}|ABCDEFGHI_{t}</t>
   </si>
   <si>
-    <t>ABCDEFGHIJt+1|ABCDEFGHIt</t>
+    <t>ABCDEFGHI_{t+1}|BCDEFGHIJ_{t}</t>
   </si>
   <si>
-    <t>ABCDEFGJt+1|ABCDEFGHIJt</t>
+    <t>ABCDEFGHI_{t+1}|BCDEFGHI_{t}</t>
   </si>
   <si>
-    <t>ABCDEFGHt+1|ABCDEFGHIJt</t>
+    <t>ABCDEFGHI_{t+1}|ACEGI_{t}</t>
   </si>
   <si>
-    <t>ABCDEGHt+1|ABCDEFGHIJt</t>
+    <t>ABCDEFGHI_{t+1}|BDFHJ_{t}</t>
   </si>
   <si>
-    <t>ABCDFGJt+1|ABCDEFGHIJt</t>
+    <t>ABCDEFGHI_{t+1}|ABDEGHJ_{t}</t>
   </si>
   <si>
-    <t>ABCEFGHt+1|ABCDEFGHIJt</t>
+    <t>BCDEFGHIJ_{t+1}|ABCDEFGHIJ_{t}</t>
   </si>
   <si>
-    <t>ABDEFGJt+1|ABCDEFGHIJt</t>
+    <t>BCDEFGHIJ_{t+1}|ABCDEFGHI_{t}</t>
   </si>
   <si>
-    <t>ACDEFGHt+1|ABCDEFGHIJt</t>
+    <t>BCDEFGHIJ_{t+1}|BCDEFGHIJ_{t}</t>
   </si>
   <si>
-    <t>BCDEFGJt+1|ABCDEFGHIJt</t>
+    <t>BCDEFGHIJ_{t+1}|BCDEFGHI_{t}</t>
   </si>
   <si>
-    <t>ABCDEFGHIt+1|ABCDEFGHIJt</t>
+    <t>BCDEFGHIJ_{t+1}|ACEGI_{t}</t>
   </si>
   <si>
-    <t>BCDEFGHIJt+1|ABCDEFGHIJt</t>
+    <t>BCDEFGHIJ_{t+1}|BDFHJ_{t}</t>
   </si>
   <si>
-    <t>BCDEFGHIJt+1|ABCDEFGJt</t>
+    <t>BCDEFGHIJ_{t+1}|ABDEGHJ_{t}</t>
   </si>
   <si>
-    <t>BCDEFGHIJt+1|ABCDEFGHt</t>
+    <t>BCDEFGHI_{t+1}|ABCDEFGHIJ_{t}</t>
   </si>
   <si>
-    <t>BCDEFGHIJt+1|ABCDEGHt</t>
+    <t>BCDEFGHI_{t+1}|ABCDEFGHI_{t}</t>
   </si>
   <si>
-    <t>BCDEFGHIJt+1|ABCDFGJt</t>
+    <t>BCDEFGHI_{t+1}|BCDEFGHIJ_{t}</t>
   </si>
   <si>
-    <t>BCDEFGHIJt+1|ABCEFGHt</t>
+    <t>BCDEFGHI_{t+1}|BCDEFGHI_{t}</t>
   </si>
   <si>
-    <t>BCDEFGHIJt+1|ABDEFGJt</t>
+    <t>BCDEFGHI_{t+1}|ACEGI_{t}</t>
   </si>
   <si>
-    <t>BCDEFGHIJt+1|ACDEFGHt</t>
+    <t>BCDEFGHI_{t+1}|BDFHJ_{t}</t>
   </si>
   <si>
-    <t>BCDEFGHIJt+1|BCDEFGJt</t>
+    <t>BCDEFGHI_{t+1}|ABDEGHJ_{t}</t>
   </si>
   <si>
-    <t>BCDEFGHIJt+1|ABCDEFGHIt</t>
+    <t>ACEGI_{t+1}|ABCDEFGHIJ_{t}</t>
   </si>
   <si>
-    <t>BCDEFGHt+1|ABCDEFGHIJt</t>
+    <t>ACEGI_{t+1}|ABCDEFGHI_{t}</t>
   </si>
   <si>
-    <t>BCDEGHt+1|ABCDEFGHIJt</t>
+    <t>ACEGI_{t+1}|BCDEFGHIJ_{t}</t>
   </si>
   <si>
-    <t>BCDFGJt+1|ABCDEFGHIJt</t>
+    <t>ACEGI_{t+1}|BCDEFGHI_{t}</t>
   </si>
   <si>
-    <t>BCEFGHt+1|ABCDEFGHIJt</t>
+    <t>ACEGI_{t+1}|ACEGI_{t}</t>
   </si>
   <si>
-    <t>BDEFGJt+1|ABCDEFGHIJt</t>
+    <t>ACEGI_{t+1}|BDFHJ_{t}</t>
   </si>
   <si>
-    <t>CDEFGHt+1|ABCDEFGHIJt</t>
+    <t>ACEGI_{t+1}|ABDEGHJ_{t}</t>
   </si>
   <si>
-    <t>BCDEFGHIt+1|ABCDEFGHIJt</t>
+    <t>BDFHJ_{t+1}|ABCDEFGHIJ_{t}</t>
   </si>
   <si>
-    <t>BCDEFGHIt+1|BCDEFGHIJt</t>
+    <t>BDFHJ_{t+1}|ABCDEFGHI_{t}</t>
   </si>
   <si>
-    <t>BCDEFGJt+1|BCDEFGHIJt</t>
+    <t>BDFHJ_{t+1}|BCDEFGHIJ_{t}</t>
+  </si>
+  <si>
+    <t>BDFHJ_{t+1}|BCDEFGHI_{t}</t>
+  </si>
+  <si>
+    <t>BDFHJ_{t+1}|ACEGI_{t}</t>
+  </si>
+  <si>
+    <t>BDFHJ_{t+1}|BDFHJ_{t}</t>
+  </si>
+  <si>
+    <t>BDFHJ_{t+1}|ABDEGHJ_{t}</t>
+  </si>
+  <si>
+    <t>ABDEGHJ_{t+1}|ABCDEFGHIJ_{t}</t>
+  </si>
+  <si>
+    <t>ABDEGHJ_{t+1}|ABCDEFGHI_{t}</t>
+  </si>
+  <si>
+    <t>ABDEGHJ_{t+1}|BCDEFGHIJ_{t}</t>
+  </si>
+  <si>
+    <t>ABDEGHJ_{t+1}|BCDEFGHI_{t}</t>
+  </si>
+  <si>
+    <t>ABDEGHJ_{t+1}|ACEGI_{t}</t>
+  </si>
+  <si>
+    <t>ABDEGHJ_{t+1}|BDFHJ_{t}</t>
+  </si>
+  <si>
+    <t>ABDEGHJ_{t+1}|ABDEGHJ_{t}</t>
+  </si>
+  <si>
+    <t>BCDEFGJ_{t+1}|BCDEFGHIJ_{t}</t>
   </si>
   <si>
     <t>https://github.com/Complexum/Proyecto-2025A/blob/main/src/samples/N15A.csv</t>
@@ -1794,14 +1830,14 @@
   </sheetPr>
   <dimension ref="A1:Y1197"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A103"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="7.57407407407407" style="15" customWidth="1"/>
-    <col min="2" max="2" width="24.7222222222222" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31" style="1" customWidth="1"/>
     <col min="3" max="3" width="29.287037037037" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.7222222222222" style="1" customWidth="1"/>
     <col min="5" max="5" width="25.5740740740741" style="40" customWidth="1"/>
@@ -2046,7 +2082,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="9"/>
@@ -2083,7 +2119,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="9"/>
@@ -2120,7 +2156,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="9"/>
@@ -2157,7 +2193,7 @@
         <v>7</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="9"/>
@@ -2194,7 +2230,7 @@
         <v>8</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="9"/>
@@ -2231,7 +2267,7 @@
         <v>9</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="13"/>
@@ -2268,7 +2304,7 @@
         <v>10</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="9"/>
@@ -2306,7 +2342,7 @@
         <v>11</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="9"/>
@@ -2345,7 +2381,7 @@
         <v>12</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="9"/>
@@ -2384,7 +2420,7 @@
         <v>13</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="9"/>
@@ -2423,7 +2459,7 @@
         <v>14</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="9"/>
@@ -2462,7 +2498,7 @@
         <v>15</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="9"/>
@@ -2501,7 +2537,7 @@
         <v>16</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="9"/>
@@ -2540,7 +2576,7 @@
         <v>17</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="9"/>
@@ -2579,7 +2615,7 @@
         <v>18</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="9"/>
@@ -2618,7 +2654,7 @@
         <v>19</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C41" s="10"/>
       <c r="D41" s="9"/>
@@ -2657,7 +2693,7 @@
         <v>20</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C43" s="10"/>
       <c r="D43" s="9"/>
@@ -2697,7 +2733,7 @@
         <v>21</v>
       </c>
       <c r="B45" s="29" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="9"/>
@@ -2736,7 +2772,7 @@
         <v>22</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C47" s="10"/>
       <c r="D47" s="9"/>
@@ -2775,7 +2811,7 @@
         <v>23</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C49" s="10"/>
       <c r="D49" s="9"/>
@@ -2814,7 +2850,7 @@
         <v>24</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C51" s="10"/>
       <c r="D51" s="9"/>
@@ -2853,7 +2889,7 @@
         <v>25</v>
       </c>
       <c r="B53" s="29" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C53" s="10"/>
       <c r="D53" s="9"/>
@@ -2892,7 +2928,7 @@
         <v>26</v>
       </c>
       <c r="B55" s="29" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C55" s="10"/>
       <c r="D55" s="9"/>
@@ -2931,7 +2967,7 @@
         <v>27</v>
       </c>
       <c r="B57" s="29" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="9"/>
@@ -2970,7 +3006,7 @@
         <v>28</v>
       </c>
       <c r="B59" s="29" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C59" s="10"/>
       <c r="D59" s="9"/>
@@ -3009,7 +3045,7 @@
         <v>29</v>
       </c>
       <c r="B61" s="29" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C61" s="10"/>
       <c r="D61" s="9"/>
@@ -3048,7 +3084,7 @@
         <v>30</v>
       </c>
       <c r="B63" s="29" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C63" s="10"/>
       <c r="D63" s="9"/>
@@ -3088,7 +3124,7 @@
         <v>31</v>
       </c>
       <c r="B65" s="29" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C65" s="10"/>
       <c r="D65" s="9"/>
@@ -3127,7 +3163,7 @@
         <v>32</v>
       </c>
       <c r="B67" s="29" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C67" s="10"/>
       <c r="D67" s="9"/>
@@ -3166,7 +3202,7 @@
         <v>33</v>
       </c>
       <c r="B69" s="29" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C69" s="10"/>
       <c r="D69" s="9"/>
@@ -3205,7 +3241,7 @@
         <v>34</v>
       </c>
       <c r="B71" s="29" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C71" s="10"/>
       <c r="D71" s="9"/>
@@ -3244,7 +3280,7 @@
         <v>35</v>
       </c>
       <c r="B73" s="29" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C73" s="10"/>
       <c r="D73" s="9"/>
@@ -3283,7 +3319,7 @@
         <v>36</v>
       </c>
       <c r="B75" s="29" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C75" s="10"/>
       <c r="D75" s="9"/>
@@ -3322,7 +3358,7 @@
         <v>37</v>
       </c>
       <c r="B77" s="29" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C77" s="10"/>
       <c r="D77" s="9"/>
@@ -3361,7 +3397,7 @@
         <v>38</v>
       </c>
       <c r="B79" s="29" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="C79" s="10"/>
       <c r="D79" s="9"/>
@@ -3400,7 +3436,7 @@
         <v>39</v>
       </c>
       <c r="B81" s="29" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C81" s="10"/>
       <c r="D81" s="9"/>
@@ -3439,7 +3475,7 @@
         <v>40</v>
       </c>
       <c r="B83" s="29" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="C83" s="10"/>
       <c r="D83" s="9"/>
@@ -3479,7 +3515,7 @@
         <v>41</v>
       </c>
       <c r="B85" s="29" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C85" s="10"/>
       <c r="D85" s="9"/>
@@ -3518,7 +3554,7 @@
         <v>42</v>
       </c>
       <c r="B87" s="29" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C87" s="10"/>
       <c r="D87" s="9"/>
@@ -3557,7 +3593,7 @@
         <v>43</v>
       </c>
       <c r="B89" s="29" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C89" s="10"/>
       <c r="D89" s="9"/>
@@ -3596,7 +3632,7 @@
         <v>44</v>
       </c>
       <c r="B91" s="29" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C91" s="10"/>
       <c r="D91" s="9"/>
@@ -3635,7 +3671,7 @@
         <v>45</v>
       </c>
       <c r="B93" s="29" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C93" s="10"/>
       <c r="D93" s="9"/>
@@ -3674,7 +3710,7 @@
         <v>46</v>
       </c>
       <c r="B95" s="29" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="C95" s="10"/>
       <c r="D95" s="9"/>
@@ -3713,7 +3749,7 @@
         <v>47</v>
       </c>
       <c r="B97" s="29" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="C97" s="10"/>
       <c r="D97" s="9"/>
@@ -3752,7 +3788,7 @@
         <v>48</v>
       </c>
       <c r="B99" s="29" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="C99" s="10"/>
       <c r="D99" s="9"/>
@@ -3791,7 +3827,7 @@
         <v>49</v>
       </c>
       <c r="B101" s="29" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C101" s="10"/>
       <c r="D101" s="9"/>
@@ -3830,7 +3866,7 @@
         <v>50</v>
       </c>
       <c r="B103" s="29" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C103" s="10"/>
       <c r="D103" s="9"/>
@@ -20192,7 +20228,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -20214,7 +20250,7 @@
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:25">
       <c r="A2" s="17" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -20222,7 +20258,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -20319,7 +20355,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="9"/>
@@ -20362,7 +20398,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="9"/>
@@ -20405,7 +20441,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="9"/>
@@ -20448,7 +20484,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="9"/>
@@ -20491,7 +20527,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="9"/>
@@ -20534,7 +20570,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="9"/>
@@ -20577,7 +20613,7 @@
         <v>7</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="9"/>
@@ -20620,7 +20656,7 @@
         <v>8</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="9"/>
@@ -20663,7 +20699,7 @@
         <v>9</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="13"/>
@@ -20706,7 +20742,7 @@
         <v>10</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="9"/>
@@ -20750,7 +20786,7 @@
         <v>11</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="9"/>
@@ -20795,7 +20831,7 @@
         <v>12</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="9"/>
@@ -20840,7 +20876,7 @@
         <v>13</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="9"/>
@@ -20885,7 +20921,7 @@
         <v>14</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="9"/>
@@ -20930,7 +20966,7 @@
         <v>15</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="9"/>
@@ -20975,7 +21011,7 @@
         <v>16</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="9"/>
@@ -21020,7 +21056,7 @@
         <v>17</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="9"/>
@@ -21065,7 +21101,7 @@
         <v>18</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="9"/>
@@ -21110,7 +21146,7 @@
         <v>19</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C41" s="10"/>
       <c r="D41" s="9"/>
@@ -21155,7 +21191,7 @@
         <v>20</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C43" s="10"/>
       <c r="D43" s="9"/>
@@ -21201,7 +21237,7 @@
         <v>21</v>
       </c>
       <c r="B45" s="29" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="9"/>
@@ -21246,7 +21282,7 @@
         <v>22</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C47" s="10"/>
       <c r="D47" s="9"/>
@@ -21291,7 +21327,7 @@
         <v>23</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="C49" s="10"/>
       <c r="D49" s="9"/>
@@ -21336,7 +21372,7 @@
         <v>24</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C51" s="10"/>
       <c r="D51" s="9"/>
@@ -21381,7 +21417,7 @@
         <v>25</v>
       </c>
       <c r="B53" s="29" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="C53" s="10"/>
       <c r="D53" s="9"/>
@@ -21426,7 +21462,7 @@
         <v>26</v>
       </c>
       <c r="B55" s="29" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
@@ -21471,7 +21507,7 @@
         <v>27</v>
       </c>
       <c r="B57" s="29" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
@@ -21516,7 +21552,7 @@
         <v>28</v>
       </c>
       <c r="B59" s="29" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
@@ -21561,7 +21597,7 @@
         <v>29</v>
       </c>
       <c r="B61" s="29" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
@@ -21606,7 +21642,7 @@
         <v>30</v>
       </c>
       <c r="B63" s="29" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
@@ -21652,7 +21688,7 @@
         <v>31</v>
       </c>
       <c r="B65" s="29" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
@@ -21697,7 +21733,7 @@
         <v>32</v>
       </c>
       <c r="B67" s="29" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
@@ -21742,7 +21778,7 @@
         <v>33</v>
       </c>
       <c r="B69" s="29" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
@@ -21787,7 +21823,7 @@
         <v>34</v>
       </c>
       <c r="B71" s="29" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
@@ -21832,7 +21868,7 @@
         <v>35</v>
       </c>
       <c r="B73" s="29" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
@@ -21877,7 +21913,7 @@
         <v>36</v>
       </c>
       <c r="B75" s="29" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
@@ -21922,7 +21958,7 @@
         <v>37</v>
       </c>
       <c r="B77" s="29" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
@@ -21967,7 +22003,7 @@
         <v>38</v>
       </c>
       <c r="B79" s="29" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
@@ -22012,7 +22048,7 @@
         <v>39</v>
       </c>
       <c r="B81" s="29" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
@@ -22057,7 +22093,7 @@
         <v>40</v>
       </c>
       <c r="B83" s="29" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
@@ -22103,7 +22139,7 @@
         <v>41</v>
       </c>
       <c r="B85" s="29" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
@@ -22148,7 +22184,7 @@
         <v>42</v>
       </c>
       <c r="B87" s="29" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
@@ -22193,7 +22229,7 @@
         <v>43</v>
       </c>
       <c r="B89" s="29" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
@@ -22238,7 +22274,7 @@
         <v>44</v>
       </c>
       <c r="B91" s="29" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
@@ -22283,7 +22319,7 @@
         <v>45</v>
       </c>
       <c r="B93" s="29" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
@@ -22328,7 +22364,7 @@
         <v>46</v>
       </c>
       <c r="B95" s="29" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
@@ -22373,7 +22409,7 @@
         <v>47</v>
       </c>
       <c r="B97" s="29" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
@@ -22418,7 +22454,7 @@
         <v>48</v>
       </c>
       <c r="B99" s="29" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="C99" s="9"/>
       <c r="D99" s="9"/>
@@ -22463,7 +22499,7 @@
         <v>49</v>
       </c>
       <c r="B101" s="29" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="C101" s="9"/>
       <c r="D101" s="9"/>
@@ -22508,7 +22544,7 @@
         <v>50</v>
       </c>
       <c r="B103" s="29" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="C103" s="9"/>
       <c r="D103" s="9"/>
@@ -30619,7 +30655,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -30641,7 +30677,7 @@
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:25">
       <c r="A2" s="17" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -30649,7 +30685,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -30746,7 +30782,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="9"/>
@@ -30767,7 +30803,6 @@
     </row>
     <row r="6" ht="18.75" customHeight="1" spans="1:25">
       <c r="A6" s="12"/>
-      <c r="B6" s="2"/>
       <c r="C6" s="10"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
@@ -30790,7 +30825,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="9"/>
@@ -30811,7 +30846,6 @@
     </row>
     <row r="8" ht="18.75" customHeight="1" spans="1:25">
       <c r="A8" s="12"/>
-      <c r="B8" s="2"/>
       <c r="C8" s="10"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
@@ -30834,7 +30868,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="9"/>
@@ -30855,7 +30889,6 @@
     </row>
     <row r="10" ht="18.75" customHeight="1" spans="1:25">
       <c r="A10" s="12"/>
-      <c r="B10" s="2"/>
       <c r="C10" s="10"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
@@ -30878,7 +30911,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="9"/>
@@ -30899,7 +30932,6 @@
     </row>
     <row r="12" ht="18.75" customHeight="1" spans="1:25">
       <c r="A12" s="12"/>
-      <c r="B12" s="2"/>
       <c r="C12" s="10"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -30922,7 +30954,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="9"/>
@@ -30943,7 +30975,6 @@
     </row>
     <row r="14" ht="18.75" customHeight="1" spans="1:25">
       <c r="A14" s="12"/>
-      <c r="B14" s="2"/>
       <c r="C14" s="10"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -30966,7 +30997,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="9"/>
@@ -30987,7 +31018,6 @@
     </row>
     <row r="16" ht="18.75" customHeight="1" spans="1:25">
       <c r="A16" s="12"/>
-      <c r="B16" s="2"/>
       <c r="C16" s="10"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
@@ -31010,7 +31040,7 @@
         <v>7</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="9"/>
@@ -31031,7 +31061,6 @@
     </row>
     <row r="18" ht="18.75" customHeight="1" spans="1:25">
       <c r="A18" s="12"/>
-      <c r="B18" s="2"/>
       <c r="C18" s="10"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
@@ -31054,7 +31083,7 @@
         <v>8</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="9"/>
@@ -31075,7 +31104,6 @@
     </row>
     <row r="20" ht="18.75" customHeight="1" spans="1:25">
       <c r="A20" s="12"/>
-      <c r="B20" s="2"/>
       <c r="C20" s="10"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
@@ -31098,7 +31126,7 @@
         <v>9</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="13"/>
@@ -31119,7 +31147,6 @@
     </row>
     <row r="22" ht="18.75" customHeight="1" spans="1:25">
       <c r="A22" s="12"/>
-      <c r="B22" s="2"/>
       <c r="C22" s="10"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
@@ -31142,7 +31169,7 @@
         <v>10</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="9"/>
@@ -31163,7 +31190,6 @@
     </row>
     <row r="24" ht="18.75" customHeight="1" spans="1:25">
       <c r="A24" s="12"/>
-      <c r="B24" s="2"/>
       <c r="C24" s="10"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
@@ -31187,7 +31213,7 @@
         <v>11</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="9"/>
@@ -31232,7 +31258,7 @@
         <v>12</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="9"/>
@@ -31277,7 +31303,7 @@
         <v>13</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="9"/>
@@ -31322,7 +31348,7 @@
         <v>14</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="9"/>
@@ -31367,7 +31393,7 @@
         <v>15</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="9"/>
@@ -31412,7 +31438,7 @@
         <v>16</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="9"/>
@@ -31457,7 +31483,7 @@
         <v>17</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="9"/>
@@ -31502,7 +31528,7 @@
         <v>18</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="9"/>
@@ -31547,7 +31573,7 @@
         <v>19</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C41" s="10"/>
       <c r="D41" s="9"/>
@@ -31592,7 +31618,7 @@
         <v>20</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C43" s="10"/>
       <c r="D43" s="9"/>
@@ -31638,7 +31664,7 @@
         <v>21</v>
       </c>
       <c r="B45" s="29" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="9"/>
@@ -31683,7 +31709,7 @@
         <v>22</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C47" s="10"/>
       <c r="D47" s="9"/>
@@ -31728,7 +31754,7 @@
         <v>23</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="C49" s="10"/>
       <c r="D49" s="9"/>
@@ -31773,7 +31799,7 @@
         <v>24</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C51" s="10"/>
       <c r="D51" s="9"/>
@@ -31818,7 +31844,7 @@
         <v>25</v>
       </c>
       <c r="B53" s="29" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="C53" s="10"/>
       <c r="D53" s="9"/>
@@ -31863,7 +31889,7 @@
         <v>26</v>
       </c>
       <c r="B55" s="29" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
@@ -31908,7 +31934,7 @@
         <v>27</v>
       </c>
       <c r="B57" s="29" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
@@ -31953,7 +31979,7 @@
         <v>28</v>
       </c>
       <c r="B59" s="29" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
@@ -31998,7 +32024,7 @@
         <v>29</v>
       </c>
       <c r="B61" s="29" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
@@ -32043,7 +32069,7 @@
         <v>30</v>
       </c>
       <c r="B63" s="29" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
@@ -32089,7 +32115,7 @@
         <v>31</v>
       </c>
       <c r="B65" s="29" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
@@ -32134,7 +32160,7 @@
         <v>32</v>
       </c>
       <c r="B67" s="29" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
@@ -32179,7 +32205,7 @@
         <v>33</v>
       </c>
       <c r="B69" s="29" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
@@ -32224,7 +32250,7 @@
         <v>34</v>
       </c>
       <c r="B71" s="29" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
@@ -32269,7 +32295,7 @@
         <v>35</v>
       </c>
       <c r="B73" s="29" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
@@ -32314,7 +32340,7 @@
         <v>36</v>
       </c>
       <c r="B75" s="29" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
@@ -32359,7 +32385,7 @@
         <v>37</v>
       </c>
       <c r="B77" s="29" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
@@ -32404,7 +32430,7 @@
         <v>38</v>
       </c>
       <c r="B79" s="29" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
@@ -32449,7 +32475,7 @@
         <v>39</v>
       </c>
       <c r="B81" s="29" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
@@ -32494,7 +32520,7 @@
         <v>40</v>
       </c>
       <c r="B83" s="29" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
@@ -32540,7 +32566,7 @@
         <v>41</v>
       </c>
       <c r="B85" s="29" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
@@ -32585,7 +32611,7 @@
         <v>42</v>
       </c>
       <c r="B87" s="29" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
@@ -32630,7 +32656,7 @@
         <v>43</v>
       </c>
       <c r="B89" s="29" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
@@ -32675,7 +32701,7 @@
         <v>44</v>
       </c>
       <c r="B91" s="29" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
@@ -32720,7 +32746,7 @@
         <v>45</v>
       </c>
       <c r="B93" s="29" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
@@ -32765,7 +32791,7 @@
         <v>46</v>
       </c>
       <c r="B95" s="29" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
@@ -32810,7 +32836,7 @@
         <v>47</v>
       </c>
       <c r="B97" s="29" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
@@ -32855,7 +32881,7 @@
         <v>48</v>
       </c>
       <c r="B99" s="29" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="C99" s="9"/>
       <c r="D99" s="9"/>
@@ -32900,7 +32926,7 @@
         <v>49</v>
       </c>
       <c r="B101" s="29" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="C101" s="9"/>
       <c r="D101" s="9"/>
@@ -32945,7 +32971,7 @@
         <v>50</v>
       </c>
       <c r="B103" s="29" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="C103" s="9"/>
       <c r="D103" s="9"/>
@@ -41025,7 +41051,7 @@
   </sheetPr>
   <dimension ref="A1:AE1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -41072,7 +41098,7 @@
     <row r="3" ht="19.5" customHeight="1" spans="1:22">
       <c r="A3" s="7"/>
       <c r="B3" s="7" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="7"/>
@@ -41137,7 +41163,7 @@
     <row r="6" ht="19.5" customHeight="1" spans="1:17">
       <c r="A6" s="9"/>
       <c r="B6" s="1" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -41160,7 +41186,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -41201,7 +41227,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -41242,7 +41268,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -41283,7 +41309,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -41324,7 +41350,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -41365,7 +41391,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -41406,7 +41432,7 @@
         <v>7</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -41447,7 +41473,7 @@
         <v>8</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -41488,7 +41514,7 @@
         <v>9</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -41529,7 +41555,7 @@
         <v>10</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -41571,7 +41597,7 @@
         <v>11</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -41614,7 +41640,7 @@
         <v>12</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -41657,7 +41683,7 @@
         <v>13</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
@@ -41700,7 +41726,7 @@
         <v>14</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -41743,7 +41769,7 @@
         <v>15</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
@@ -41786,7 +41812,7 @@
         <v>16</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
@@ -41829,7 +41855,7 @@
         <v>17</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
@@ -41872,7 +41898,7 @@
         <v>18</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
@@ -41915,7 +41941,7 @@
         <v>19</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44" ht="18.75" customHeight="1" spans="1:1">
@@ -41928,7 +41954,7 @@
         <v>20</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46" ht="18.75" customHeight="1" spans="1:1">
@@ -41942,7 +41968,7 @@
         <v>21</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
     </row>
     <row r="48" ht="18.75" customHeight="1" spans="1:15">
@@ -41956,7 +41982,7 @@
         <v>22</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="K49" s="9"/>
     </row>
@@ -41970,7 +41996,7 @@
         <v>23</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
     </row>
     <row r="52" ht="18.75" customHeight="1" spans="1:1">
@@ -41983,7 +42009,7 @@
         <v>24</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="54" ht="18.75" customHeight="1" spans="1:1">
@@ -41996,7 +42022,7 @@
         <v>25</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="56" ht="12.75" customHeight="1" spans="1:1">
@@ -42009,7 +42035,7 @@
         <v>26</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
     </row>
     <row r="58" ht="12.75" customHeight="1" spans="1:1">
@@ -42022,7 +42048,7 @@
         <v>27</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
     </row>
     <row r="60" ht="12.75" customHeight="1" spans="1:1">
@@ -42035,7 +42061,7 @@
         <v>28</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
     </row>
     <row r="62" ht="12.75" customHeight="1" spans="1:1">
@@ -42048,7 +42074,7 @@
         <v>29</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="64" ht="12.75" customHeight="1" spans="1:1">
@@ -42061,7 +42087,7 @@
         <v>30</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
     </row>
     <row r="66" ht="12.75" customHeight="1" spans="1:1">
@@ -42075,7 +42101,7 @@
         <v>31</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="68" ht="12.75" customHeight="1" spans="1:1">
@@ -42088,7 +42114,7 @@
         <v>32</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="70" ht="12.75" customHeight="1" spans="1:1">
@@ -42101,7 +42127,7 @@
         <v>33</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
     </row>
     <row r="72" ht="12.75" customHeight="1" spans="1:1">
@@ -42114,7 +42140,7 @@
         <v>34</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
     </row>
     <row r="74" ht="12.75" customHeight="1" spans="1:1">
@@ -42127,7 +42153,7 @@
         <v>35</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
     </row>
     <row r="76" ht="12.75" customHeight="1" spans="1:1">
@@ -42140,7 +42166,7 @@
         <v>36</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
     </row>
     <row r="78" ht="12.75" customHeight="1" spans="1:1">
@@ -42153,7 +42179,7 @@
         <v>37</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
     </row>
     <row r="80" ht="12.75" customHeight="1" spans="1:1">
@@ -42166,7 +42192,7 @@
         <v>38</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
     </row>
     <row r="82" ht="12.75" customHeight="1" spans="1:1">
@@ -42179,7 +42205,7 @@
         <v>39</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="84" ht="12.75" customHeight="1" spans="1:1">
@@ -42192,7 +42218,7 @@
         <v>40</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
     </row>
     <row r="86" ht="12.75" customHeight="1" spans="1:1">
@@ -42206,7 +42232,7 @@
         <v>41</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
     </row>
     <row r="88" ht="12.75" customHeight="1" spans="1:1">
@@ -42219,7 +42245,7 @@
         <v>42</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
     </row>
     <row r="90" ht="12.75" customHeight="1" spans="1:1">
@@ -42232,7 +42258,7 @@
         <v>43</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
     </row>
     <row r="92" ht="12.75" customHeight="1" spans="1:1">
@@ -42245,7 +42271,7 @@
         <v>44</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="94" ht="12.75" customHeight="1" spans="1:1">
@@ -42258,7 +42284,7 @@
         <v>45</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
     </row>
     <row r="96" ht="12.75" customHeight="1" spans="1:1">
@@ -42271,7 +42297,7 @@
         <v>46</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
     </row>
     <row r="98" ht="12.75" customHeight="1" spans="1:1">
@@ -42284,7 +42310,7 @@
         <v>47</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
     </row>
     <row r="100" ht="12.75" customHeight="1" spans="1:1">
@@ -42297,7 +42323,7 @@
         <v>48</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="102" ht="12.75" customHeight="1" spans="1:1">
@@ -42310,7 +42336,7 @@
         <v>49</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
     </row>
     <row r="104" ht="12.75" customHeight="1" spans="1:1">
@@ -42323,7 +42349,7 @@
         <v>50</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
     </row>
     <row r="106" ht="12.75" customHeight="1" spans="1:1">
@@ -43312,7 +43338,7 @@
   <sheetData>
     <row r="1" ht="27.75" customHeight="1" spans="2:23">
       <c r="B1" s="3" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -43338,37 +43364,37 @@
     </row>
     <row r="2" ht="23.25" customHeight="1" spans="2:2">
       <c r="B2" s="5" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" ht="23.25" customHeight="1" spans="2:2">
       <c r="B3" s="5" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" ht="23.25" customHeight="1" spans="2:2">
       <c r="B4" s="5" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" ht="23.25" customHeight="1" spans="2:2">
       <c r="B5" s="5" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" ht="23.25" customHeight="1" spans="2:2">
       <c r="B6" s="5" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" ht="23.25" customHeight="1" spans="2:2">
       <c r="B7" s="5" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" ht="23.25" customHeight="1" spans="2:2">
       <c r="B8" s="5" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
